--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T23:28:48+00:00</t>
+    <t>2022-07-14T23:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T23:35:37+00:00</t>
+    <t>2022-07-15T00:31:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T00:31:00+00:00</t>
+    <t>2022-07-15T01:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T01:40:07+00:00</t>
+    <t>2022-07-15T03:58:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T03:58:01+00:00</t>
+    <t>2022-07-15T09:57:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T09:57:08+00:00</t>
+    <t>2022-07-18T23:59:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T23:59:16+00:00</t>
+    <t>2022-07-19T02:14:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T02:14:28+00:00</t>
+    <t>2022-07-19T08:05:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T08:05:59+00:00</t>
+    <t>2022-07-20T22:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T22:47:26+00:00</t>
+    <t>2022-07-21T02:38:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T02:38:40+00:00</t>
+    <t>2022-07-22T12:50:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T12:50:03+00:00</t>
+    <t>2022-07-25T13:41:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:41:20+00:00</t>
+    <t>2022-07-26T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:48:24+00:00</t>
+    <t>2022-07-29T00:48:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T00:48:21+00:00</t>
+    <t>2022-08-01T01:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T01:14:07+00:00</t>
+    <t>2022-08-01T09:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:08:31+00:00</t>
+    <t>2022-08-01T10:54:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T10:54:34+00:00</t>
+    <t>2022-08-03T00:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_Immunization_ManufacturedDate</t>
+    <t>http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_ManufacturedDate</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T00:30:07+00:00</t>
+    <t>2022-08-03T13:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T13:55:30+00:00</t>
+    <t>2022-08-06T07:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T07:57:57+00:00</t>
+    <t>2022-08-06T08:15:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T08:15:13+00:00</t>
+    <t>2022-08-08T12:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T12:51:35+00:00</t>
+    <t>2022-08-15T09:08:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T09:08:26+00:00</t>
+    <t>2022-08-17T12:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T12:11:07+00:00</t>
+    <t>2022-08-29T14:36:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:36:41+00:00</t>
+    <t>2022-09-02T06:00:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T06:00:18+00:00</t>
+    <t>2022-09-14T09:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:35:02+00:00</t>
+    <t>2022-09-16T11:30:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>ワクチンが製造された年月日</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -669,7 +672,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="47.9609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -835,10 +838,10 @@
         <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -898,10 +901,10 @@
         <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -909,7 +912,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -920,7 +923,7 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>75</v>
@@ -932,13 +935,13 @@
         <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -989,13 +992,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -1004,12 +1007,12 @@
         <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1032,13 +1035,13 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1077,19 +1080,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1101,7 +1104,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -1109,7 +1112,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1117,10 +1120,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
@@ -1132,16 +1135,16 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1191,13 +1194,13 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
@@ -1206,12 +1209,12 @@
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1222,7 +1225,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>75</v>
@@ -1234,13 +1237,13 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1291,22 +1294,22 @@
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T11:30:59+00:00</t>
+    <t>2022-09-25T05:48:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-25T05:48:03+00:00</t>
+    <t>2022-09-25T06:18:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-25T06:18:09+00:00</t>
+    <t>2022-09-26T00:42:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T00:42:49+00:00</t>
+    <t>2022-09-26T03:36:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T03:36:51+00:00</t>
+    <t>2022-09-26T13:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T13:48:42+00:00</t>
+    <t>2022-09-27T02:46:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T02:46:09+00:00</t>
+    <t>2022-09-28T05:36:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-28T05:36:20+00:00</t>
+    <t>2022-09-29T03:29:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-29T03:29:59+00:00</t>
+    <t>2022-10-04T01:39:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="107">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-04T01:39:17+00:00</t>
+    <t>2022-10-17T22:42:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
   </si>
   <si>
     <t>FHIR Version</t>
@@ -256,53 +259,53 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -587,63 +590,63 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -702,212 +705,212 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
         <v>22</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -916,23 +919,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>83</v>
@@ -946,65 +949,65 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>87</v>
@@ -1016,29 +1019,29 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>90</v>
@@ -1046,38 +1049,38 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>91</v>
@@ -1086,7 +1089,7 @@
         <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>93</v>
@@ -1095,28 +1098,28 @@
         <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -1126,75 +1129,75 @@
         <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>82</v>
@@ -1203,113 +1206,113 @@
         <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-17T22:42:27+00:00</t>
+    <t>2022-10-17T23:32:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-17T23:32:19+00:00</t>
+    <t>2022-10-18T03:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-18T03:23:03+00:00</t>
+    <t>2022-10-18T03:38:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-18T03:38:55+00:00</t>
+    <t>2022-10-18T03:55:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-18T03:55:11+00:00</t>
+    <t>2022-10-18T05:52:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-18T05:52:07+00:00</t>
+    <t>2022-10-18T06:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-18T06:56:03+00:00</t>
+    <t>2022-10-19T12:53:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-19T12:53:57+00:00</t>
+    <t>2022-10-23T03:49:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T03:49:07+00:00</t>
+    <t>2022-10-23T05:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T05:43:11+00:00</t>
+    <t>2022-10-23T09:17:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
